--- a/ChristmasBaskets/2015/Final - RCSS 2015 GE Box List.xlsx
+++ b/ChristmasBaskets/2015/Final - RCSS 2015 GE Box List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="809">
   <si>
     <t>WORKER</t>
   </si>
@@ -2369,9 +2369,6 @@
     <t>521-4284</t>
   </si>
   <si>
-    <t>Quarles</t>
-  </si>
-  <si>
     <t>NO PHONE</t>
   </si>
   <si>
@@ -2450,34 +2447,10 @@
     <t>3936 Tennessee Avenue</t>
   </si>
   <si>
-    <t>DELIVER TO DSS</t>
-  </si>
-  <si>
     <t>DIFFERENT APT. #</t>
   </si>
   <si>
     <t>NOW IN ROA. CITY</t>
-  </si>
-  <si>
-    <t>220 East Main Street - DAWN ESPELAGE</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Grear</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>220 East Main Street - LISE MARTIN</t>
-  </si>
-  <si>
-    <t>283-8873</t>
-  </si>
-  <si>
-    <t>283-8848</t>
   </si>
   <si>
     <t>Wade</t>
@@ -2578,7 +2551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2605,7 +2578,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2907,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D200"/>
+    <sheetView tabSelected="1" topLeftCell="B164" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4115,7 +4087,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>385</v>
       </c>
@@ -4138,7 +4110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>577</v>
       </c>
@@ -4161,7 +4133,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>577</v>
       </c>
@@ -4184,7 +4156,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>577</v>
       </c>
@@ -4207,21 +4179,21 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" t="s">
         <v>780</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>781</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>782</v>
-      </c>
-      <c r="E53" t="s">
-        <v>783</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
@@ -4230,10 +4202,10 @@
         <v>24179</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>577</v>
       </c>
@@ -4259,7 +4231,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>577</v>
       </c>
@@ -4282,120 +4254,119 @@
         <v>639</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="2">
         <v>24153</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="2">
+        <v>24012</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B58" s="4" t="s">
-        <v>112</v>
+        <v>640</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>630</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" t="s">
-        <v>122</v>
+        <v>641</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="2">
-        <v>24012</v>
+        <v>24018</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>640</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>630</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>641</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G59" s="2">
-        <v>24018</v>
+        <v>24153</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>577</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>350</v>
       </c>
       <c r="F60" t="s">
         <v>24</v>
@@ -4404,107 +4375,107 @@
         <v>24153</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>577</v>
+        <v>385</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E61" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="2">
+        <v>24179</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="9">
         <v>24153</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>110</v>
+        <v>744</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>116</v>
+        <v>752</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>120</v>
+        <v>753</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>124</v>
+        <v>754</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="9">
+        <v>24179</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>24153</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="9">
-        <v>24179</v>
-      </c>
       <c r="H64" s="11" t="s">
-        <v>755</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,25 +4483,25 @@
         <v>110</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>464</v>
+        <v>645</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>466</v>
+        <v>644</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" s="9">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>468</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4538,74 +4509,72 @@
         <v>110</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>645</v>
+        <v>351</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>644</v>
+        <v>352</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="F66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="9">
+        <v>24018</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D67" t="s">
+        <v>495</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="2">
+        <v>24153</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G68" s="9">
         <v>24179</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="9">
-        <v>24018</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" t="s">
-        <v>493</v>
-      </c>
-      <c r="C68" t="s">
-        <v>494</v>
-      </c>
-      <c r="D68" t="s">
-        <v>495</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>496</v>
+      <c r="H68" s="11" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4613,73 +4582,73 @@
         <v>110</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>353</v>
+        <v>653</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>354</v>
+        <v>652</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>355</v>
+        <v>651</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="9">
+        <v>24153</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
+        <v>524</v>
+      </c>
+      <c r="E70" t="s">
+        <v>487</v>
+      </c>
+      <c r="F70" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="2">
         <v>24179</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="H70" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="s">
+      <c r="B71" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>24153</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
-        <v>523</v>
-      </c>
-      <c r="C71" t="s">
-        <v>305</v>
-      </c>
-      <c r="D71" t="s">
-        <v>524</v>
-      </c>
-      <c r="E71" t="s">
-        <v>487</v>
-      </c>
-      <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>525</v>
+      <c r="H71" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4687,49 +4656,48 @@
         <v>110</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>649</v>
+        <v>130</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>648</v>
+        <v>135</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E72" s="10"/>
+        <v>401</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>654</v>
+      </c>
       <c r="F72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="9">
+        <v>24179</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" t="s">
+        <v>707</v>
+      </c>
+      <c r="F73" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="2">
         <v>24153</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="9">
-        <v>24179</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>147</v>
+      <c r="H73" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4737,211 +4705,211 @@
         <v>385</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>707</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G74" s="2">
-        <v>24153</v>
+        <v>24018</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>148</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" t="s">
-        <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="2">
-        <v>24018</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>535</v>
+      <c r="A75" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="9">
+        <v>24179</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="9">
+        <v>24153</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="2">
+        <v>24179</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="9">
-        <v>24179</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
+      <c r="B78" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>24153</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" t="s">
-        <v>144</v>
-      </c>
-      <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>149</v>
+      <c r="H78" s="11" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="9">
-        <v>24153</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>563</v>
+      <c r="C79" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2">
+        <v>24019</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>469</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>470</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>471</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="2">
-        <v>24019</v>
+        <v>24012</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>472</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>8</v>
+        <v>385</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>678</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" t="s">
-        <v>145</v>
+        <v>741</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G81" s="2">
-        <v>24012</v>
+        <v>24153</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>150</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>385</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
-        <v>678</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>741</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
         <v>24</v>
@@ -4950,30 +4918,33 @@
         <v>24153</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>742</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" t="s">
-        <v>162</v>
-      </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>167</v>
+      <c r="A83" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="9">
+        <v>24012</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4981,25 +4952,25 @@
         <v>110</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>152</v>
+        <v>473</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>40</v>
+        <v>401</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>402</v>
+        <v>474</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G84" s="9">
-        <v>24012</v>
+        <v>24179</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>168</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5007,25 +4978,25 @@
         <v>110</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G85" s="9">
-        <v>24179</v>
+        <v>24018</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5033,213 +5004,211 @@
         <v>110</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>311</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="9">
+        <v>24153</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>708</v>
+      </c>
+      <c r="F87" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="2">
         <v>24018</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+      <c r="H87" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
+      <c r="B88" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="9">
+        <v>24012</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C89" t="s">
+        <v>528</v>
+      </c>
+      <c r="D89" t="s">
+        <v>529</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="2">
+        <v>24014</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G90" s="9">
         <v>24153</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>708</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="H90" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>579</v>
+      </c>
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" t="s">
+        <v>165</v>
+      </c>
+      <c r="F91" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="2">
-        <v>24018</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="9">
-        <v>24012</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="C90" t="s">
-        <v>528</v>
-      </c>
-      <c r="D90" t="s">
-        <v>529</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="2">
-        <v>24014</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" s="9">
-        <v>24153</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>418</v>
+      <c r="G91" s="2">
+        <v>24179</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" t="s">
-        <v>155</v>
+        <v>8</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>579</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="2">
-        <v>24179</v>
+        <v>24012</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>156</v>
+        <v>173</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G93" s="2">
-        <v>24012</v>
+        <v>24153</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
         <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="D94" t="s">
-        <v>181</v>
+        <v>505</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
@@ -5248,22 +5217,24 @@
         <v>24153</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I94" s="10"/>
+        <v>506</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>504</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>505</v>
+        <v>316</v>
+      </c>
+      <c r="E95" t="s">
+        <v>685</v>
       </c>
       <c r="F95" t="s">
         <v>24</v>
@@ -5271,34 +5242,32 @@
       <c r="G95" s="2">
         <v>24153</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>506</v>
+      <c r="H95" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="s">
-        <v>316</v>
-      </c>
-      <c r="E96" t="s">
-        <v>685</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="C96" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="9">
         <v>24153</v>
       </c>
-      <c r="H96" t="s">
-        <v>713</v>
+      <c r="H96" s="11" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5309,12 +5278,14 @@
         <v>175</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>419</v>
+        <v>178</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E97" s="10"/>
+        <v>182</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="F97" s="10" t="s">
         <v>24</v>
       </c>
@@ -5322,7 +5293,7 @@
         <v>24153</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>421</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5330,25 +5301,25 @@
         <v>110</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>175</v>
+        <v>692</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>178</v>
+        <v>693</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>361</v>
+        <v>694</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G98" s="9">
-        <v>24153</v>
+        <v>24012</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>201</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5356,16 +5327,16 @@
         <v>110</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>692</v>
+        <v>422</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>693</v>
+        <v>423</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>694</v>
+        <v>424</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>9</v>
@@ -5374,7 +5345,7 @@
         <v>24012</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>695</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5382,67 +5353,65 @@
         <v>110</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>423</v>
+        <v>559</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>424</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="9">
-        <v>24012</v>
+        <v>24014</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>425</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>110</v>
+        <v>601</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="E101" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>547</v>
+      </c>
       <c r="F101" s="10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G101" s="9">
-        <v>24014</v>
+        <v>24153</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>601</v>
+        <v>110</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>546</v>
+        <v>362</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>547</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E102" s="10"/>
       <c r="F102" s="10" t="s">
         <v>24</v>
       </c>
@@ -5450,7 +5419,7 @@
         <v>24153</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5458,238 +5427,241 @@
         <v>110</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>555</v>
+        <v>696</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="E103" s="10"/>
+        <v>697</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>698</v>
+      </c>
       <c r="F103" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G103" s="9">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>557</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>110</v>
+        <v>778</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>698</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G104" s="9">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>779</v>
+        <v>174</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>785</v>
+        <v>176</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="E105" s="10"/>
+        <v>364</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="F105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="9">
+        <v>24012</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="2">
+        <v>24179</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G107" s="2">
         <v>24153</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F106" s="10" t="s">
+      <c r="H107" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>195</v>
+      </c>
+      <c r="F108" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G108" s="2">
         <v>24012</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C107" t="s">
-        <v>189</v>
-      </c>
-      <c r="D107" t="s">
-        <v>194</v>
-      </c>
-      <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>740</v>
+      <c r="H108" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>185</v>
+        <v>250</v>
+      </c>
+      <c r="B109" t="s">
+        <v>483</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>463</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="2">
-        <v>24012</v>
+        <v>24018</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>203</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B110" t="s">
-        <v>483</v>
+        <v>49</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>463</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G110" s="2">
-        <v>24018</v>
+        <v>24059</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>484</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" t="s">
-        <v>190</v>
-      </c>
-      <c r="D111" t="s">
-        <v>196</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-      <c r="G111" s="2">
-        <v>24059</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="A111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="9">
+        <v>24153</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>363</v>
+        <v>734</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>198</v>
+        <v>735</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>24</v>
@@ -5698,52 +5670,51 @@
         <v>24153</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>365</v>
+        <v>736</v>
       </c>
       <c r="I112" s="11"/>
     </row>
     <row r="113" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="F113" s="10" t="s">
+      <c r="A113" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C113" t="s">
+        <v>587</v>
+      </c>
+      <c r="D113" t="s">
+        <v>588</v>
+      </c>
+      <c r="E113" t="s">
+        <v>589</v>
+      </c>
+      <c r="F113" t="s">
         <v>24</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="2">
         <v>24153</v>
       </c>
-      <c r="H113" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="I113" s="11"/>
+      <c r="H113" s="4" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>207</v>
+        <v>601</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>586</v>
+        <v>720</v>
       </c>
       <c r="C114" t="s">
-        <v>587</v>
+        <v>721</v>
       </c>
       <c r="D114" t="s">
-        <v>588</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
-        <v>589</v>
+        <v>722</v>
       </c>
       <c r="F114" t="s">
         <v>24</v>
@@ -5752,102 +5723,102 @@
         <v>24153</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>590</v>
+        <v>723</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C115" t="s">
-        <v>721</v>
-      </c>
-      <c r="D115" t="s">
-        <v>316</v>
-      </c>
-      <c r="E115" t="s">
-        <v>722</v>
-      </c>
-      <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>723</v>
-      </c>
+      <c r="A115" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="9">
+        <v>24019</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E116" s="10"/>
+        <v>334</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>368</v>
+      </c>
       <c r="F116" s="10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G116" s="9">
-        <v>24019</v>
+        <v>24179</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D117" s="10" t="s">
+      <c r="A117" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
         <v>334</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F117" s="10" t="s">
+      <c r="E117" t="s">
+        <v>534</v>
+      </c>
+      <c r="F117" t="s">
         <v>25</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G117" s="2">
         <v>24179</v>
       </c>
-      <c r="H117" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="I117" s="11"/>
+      <c r="H117" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>188</v>
+        <v>250</v>
+      </c>
+      <c r="B118" t="s">
+        <v>507</v>
       </c>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>334</v>
+        <v>509</v>
       </c>
       <c r="E118" t="s">
-        <v>534</v>
+        <v>142</v>
       </c>
       <c r="F118" t="s">
         <v>25</v>
@@ -5856,161 +5827,162 @@
         <v>24179</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>206</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B119" t="s">
-        <v>507</v>
-      </c>
-      <c r="C119" t="s">
-        <v>508</v>
-      </c>
-      <c r="D119" t="s">
-        <v>509</v>
-      </c>
-      <c r="E119" t="s">
-        <v>142</v>
-      </c>
-      <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>510</v>
-      </c>
+      <c r="A119" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" s="9">
+        <v>24059</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>208</v>
+        <v>541</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>214</v>
+        <v>542</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E120" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>543</v>
+      </c>
       <c r="F120" s="10" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G120" s="9">
-        <v>24059</v>
+        <v>24019</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>658</v>
+        <v>544</v>
       </c>
       <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="F121" s="10" t="s">
+      <c r="A121" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C121" t="s">
+        <v>477</v>
+      </c>
+      <c r="D121" t="s">
+        <v>478</v>
+      </c>
+      <c r="F121" t="s">
         <v>9</v>
       </c>
-      <c r="G121" s="9">
-        <v>24019</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="I121" s="10"/>
+      <c r="G121" s="2">
+        <v>24018</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C122" t="s">
-        <v>477</v>
-      </c>
-      <c r="D122" t="s">
-        <v>478</v>
-      </c>
-      <c r="F122" t="s">
+        <v>744</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="2">
-        <v>24018</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>668</v>
+      <c r="G122" s="13">
+        <v>24017</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="13">
-        <v>24017</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>806</v>
-      </c>
+      <c r="A123" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="9">
+        <v>24179</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I123" s="10"/>
     </row>
     <row r="124" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>485</v>
+        <v>209</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>486</v>
+        <v>219</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>487</v>
+        <v>220</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G124" s="9">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>488</v>
+        <v>224</v>
       </c>
       <c r="I124" s="10"/>
     </row>
@@ -6019,25 +5991,25 @@
         <v>174</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G125" s="9">
-        <v>24153</v>
+        <v>24012</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="I125" s="10"/>
     </row>
@@ -6046,16 +6018,16 @@
         <v>174</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>364</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>9</v>
@@ -6064,7 +6036,7 @@
         <v>24012</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I126" s="10"/>
     </row>
@@ -6073,16 +6045,16 @@
         <v>174</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>364</v>
+        <v>136</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>9</v>
@@ -6091,34 +6063,31 @@
         <v>24012</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>372</v>
+        <v>225</v>
       </c>
       <c r="I127" s="10"/>
     </row>
     <row r="128" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>212</v>
+        <v>795</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>165</v>
+        <v>796</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="9">
-        <v>24012</v>
+        <v>24</v>
+      </c>
+      <c r="G128" s="2">
+        <v>24153</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>225</v>
+        <v>777</v>
       </c>
       <c r="I128" s="10"/>
     </row>
@@ -6127,13 +6096,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>796</v>
+        <v>756</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>412</v>
+        <v>180</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>24</v>
@@ -6142,290 +6111,288 @@
         <v>24153</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="I129" s="10"/>
     </row>
     <row r="130" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>11</v>
+        <v>744</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>756</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>180</v>
+        <v>627</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>801</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="E130" s="10"/>
       <c r="F130" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="9">
         <v>24153</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="I130" s="10"/>
+        <v>758</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
-        <v>744</v>
+        <v>174</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>756</v>
+        <v>213</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="E131" s="10"/>
+        <v>216</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="F131" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="9">
+        <v>24018</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132" t="s">
+        <v>222</v>
+      </c>
+      <c r="E132" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" t="s">
         <v>24</v>
       </c>
-      <c r="G131" s="9">
+      <c r="G132" s="2">
         <v>24153</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
+      <c r="H132" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F132" s="10" t="s">
+      <c r="B133" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="9">
+        <v>24153</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="13">
+        <v>24179</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G132" s="9">
-        <v>24018</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C133" t="s">
-        <v>217</v>
-      </c>
-      <c r="D133" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" t="s">
-        <v>223</v>
-      </c>
-      <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="9">
-        <v>24153</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" s="13">
-        <v>24179</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>805</v>
-      </c>
+      <c r="G135" s="9">
+        <v>24019</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="13">
-        <v>24153</v>
-      </c>
-      <c r="H136" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>804</v>
+        <v>174</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="9">
+        <v>24018</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" s="9">
+        <v>24179</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="9">
-        <v>24019</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="9">
-        <v>24018</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>376</v>
+      <c r="B138" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C138" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" t="s">
+        <v>316</v>
+      </c>
+      <c r="E138" t="s">
+        <v>553</v>
+      </c>
+      <c r="F138" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="2">
+        <v>24153</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>770</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
+      <c r="A139" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C139" t="s">
+        <v>455</v>
+      </c>
+      <c r="D139" t="s">
+        <v>456</v>
+      </c>
+      <c r="E139" t="s">
+        <v>457</v>
+      </c>
+      <c r="F139" t="s">
         <v>25</v>
       </c>
-      <c r="G139" s="9">
+      <c r="G139" s="2">
         <v>24179</v>
       </c>
-      <c r="H139" s="11" t="s">
-        <v>773</v>
+      <c r="H139" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>552</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>316</v>
-      </c>
-      <c r="E140" t="s">
-        <v>553</v>
+        <v>242</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G140" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>554</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6433,74 +6400,74 @@
         <v>84</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>454</v>
+        <v>230</v>
       </c>
       <c r="C141" t="s">
-        <v>455</v>
+        <v>93</v>
       </c>
       <c r="D141" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="E141" t="s">
-        <v>457</v>
+        <v>700</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G141" s="2">
-        <v>24179</v>
+        <v>24012</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>230</v>
+        <v>427</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>121</v>
+      </c>
+      <c r="E142" t="s">
+        <v>428</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G142" s="2">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D143" t="s">
-        <v>364</v>
-      </c>
-      <c r="E143" t="s">
-        <v>700</v>
+        <v>244</v>
       </c>
       <c r="F143" t="s">
         <v>9</v>
       </c>
       <c r="G143" s="2">
-        <v>24012</v>
+        <v>24018</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>701</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6508,163 +6475,163 @@
         <v>84</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>427</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="E144" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G144" s="2">
-        <v>24153</v>
+        <v>24012</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
-        <v>244</v>
+        <v>364</v>
+      </c>
+      <c r="E145" t="s">
+        <v>623</v>
       </c>
       <c r="F145" t="s">
         <v>9</v>
       </c>
       <c r="G145" s="2">
-        <v>24018</v>
+        <v>24012</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>248</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>232</v>
+        <v>526</v>
+      </c>
+      <c r="B146" t="s">
+        <v>531</v>
       </c>
       <c r="C146" t="s">
-        <v>237</v>
+        <v>628</v>
       </c>
       <c r="D146" t="s">
-        <v>364</v>
-      </c>
-      <c r="E146" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
       </c>
       <c r="G146" s="2">
-        <v>24012</v>
+        <v>24019</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>378</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>232</v>
+        <v>599</v>
+      </c>
+      <c r="B147" t="s">
+        <v>236</v>
       </c>
       <c r="C147" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
-        <v>364</v>
+        <v>512</v>
       </c>
       <c r="E147" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="F147" t="s">
         <v>9</v>
       </c>
       <c r="G147" s="2">
-        <v>24012</v>
+        <v>24018</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>624</v>
+        <v>514</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B148" t="s">
-        <v>531</v>
+        <v>84</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="C148" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>532</v>
+        <v>431</v>
       </c>
       <c r="F148" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G148" s="2">
-        <v>24019</v>
+        <v>24153</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>533</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B149" t="s">
-        <v>236</v>
+        <v>84</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>549</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D149" t="s">
-        <v>512</v>
-      </c>
-      <c r="E149" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G149" s="2">
-        <v>24018</v>
+        <v>24153</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>430</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>686</v>
       </c>
       <c r="D150" t="s">
-        <v>431</v>
+        <v>687</v>
+      </c>
+      <c r="E150" t="s">
+        <v>516</v>
       </c>
       <c r="F150" t="s">
         <v>24</v>
@@ -6673,47 +6640,44 @@
         <v>24153</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>432</v>
+        <v>714</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>549</v>
+        <v>233</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="D151" t="s">
-        <v>550</v>
+        <v>245</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G151" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>551</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="C152" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
       <c r="D152" t="s">
-        <v>687</v>
-      </c>
-      <c r="E152" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="F152" t="s">
         <v>24</v>
@@ -6722,53 +6686,53 @@
         <v>24153</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>714</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="D153" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G153" s="2">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>249</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C154" t="s">
-        <v>591</v>
+        <v>438</v>
       </c>
       <c r="D154" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G154" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>593</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6776,13 +6740,13 @@
         <v>84</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="C155" t="s">
-        <v>434</v>
+        <v>262</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
         <v>24</v>
@@ -6791,105 +6755,108 @@
         <v>24153</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>436</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>437</v>
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>518</v>
       </c>
       <c r="C156" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="D156" t="s">
-        <v>439</v>
+        <v>520</v>
+      </c>
+      <c r="E156" t="s">
+        <v>521</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G156" s="2">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>440</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="D157" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="E157" t="s">
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G157" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" t="s">
-        <v>518</v>
+        <v>84</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>519</v>
+        <v>263</v>
       </c>
       <c r="D158" t="s">
-        <v>520</v>
-      </c>
-      <c r="E158" t="s">
-        <v>521</v>
+        <v>271</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G158" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>522</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>252</v>
+        <v>441</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="D159" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>443</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G159" s="2">
-        <v>24179</v>
+        <v>24012</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>278</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6897,48 +6864,48 @@
         <v>84</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D160" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="E160" t="s">
+        <v>273</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G160" s="2">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>84</v>
+        <v>778</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>441</v>
+        <v>787</v>
       </c>
       <c r="C161" t="s">
-        <v>442</v>
+        <v>788</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
-      </c>
-      <c r="E161" t="s">
-        <v>443</v>
+        <v>789</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G161" s="2">
-        <v>24012</v>
+        <v>24179</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>444</v>
+        <v>790</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6946,16 +6913,13 @@
         <v>84</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="C162" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>272</v>
-      </c>
-      <c r="E162" t="s">
-        <v>273</v>
+        <v>446</v>
       </c>
       <c r="F162" t="s">
         <v>24</v>
@@ -6964,30 +6928,33 @@
         <v>24153</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>626</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>788</v>
+        <v>599</v>
+      </c>
+      <c r="B163" t="s">
+        <v>255</v>
       </c>
       <c r="C163" t="s">
-        <v>789</v>
+        <v>515</v>
       </c>
       <c r="D163" t="s">
-        <v>790</v>
+        <v>512</v>
+      </c>
+      <c r="E163" t="s">
+        <v>516</v>
       </c>
       <c r="F163" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G163" s="2">
-        <v>24179</v>
+        <v>24018</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>791</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6995,48 +6962,51 @@
         <v>84</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>448</v>
       </c>
       <c r="D164" t="s">
-        <v>446</v>
+        <v>401</v>
+      </c>
+      <c r="E164" t="s">
+        <v>449</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G164" s="2">
-        <v>24153</v>
+        <v>24179</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C165" t="s">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="D165" t="s">
-        <v>512</v>
+        <v>380</v>
       </c>
       <c r="E165" t="s">
-        <v>516</v>
+        <v>101</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G165" s="2">
-        <v>24018</v>
+        <v>24179</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>517</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7047,22 +7017,22 @@
         <v>255</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
       <c r="D166" t="s">
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="E166" t="s">
-        <v>449</v>
+        <v>101</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G166" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>450</v>
+        <v>24153</v>
+      </c>
+      <c r="H166" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7073,155 +7043,152 @@
         <v>255</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="D167" t="s">
-        <v>380</v>
-      </c>
-      <c r="E167" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G167" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>381</v>
+        <v>24059</v>
+      </c>
+      <c r="H167" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>84</v>
+        <v>778</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>255</v>
+        <v>791</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>792</v>
       </c>
       <c r="D168" t="s">
-        <v>100</v>
-      </c>
-      <c r="E168" t="s">
-        <v>101</v>
+        <v>793</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G168" s="2">
-        <v>24153</v>
+        <v>24018</v>
       </c>
       <c r="H168" t="s">
-        <v>600</v>
+        <v>794</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D169" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F169" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G169" s="2">
-        <v>24059</v>
+        <v>24179</v>
       </c>
       <c r="H169" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>779</v>
+        <v>386</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>792</v>
+        <v>259</v>
       </c>
       <c r="C170" t="s">
-        <v>793</v>
+        <v>266</v>
       </c>
       <c r="D170" t="s">
-        <v>794</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E170" s="4"/>
       <c r="F170" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G170" s="2">
-        <v>24018</v>
-      </c>
-      <c r="H170" t="s">
-        <v>795</v>
+        <v>24153</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
+        <v>451</v>
       </c>
       <c r="D171" t="s">
-        <v>274</v>
+        <v>452</v>
       </c>
       <c r="F171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G171" s="2">
-        <v>24179</v>
+        <v>24153</v>
       </c>
       <c r="H171" t="s">
-        <v>280</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C172" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D172" t="s">
-        <v>275</v>
-      </c>
-      <c r="E172" s="4"/>
+        <v>276</v>
+      </c>
       <c r="F172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G172" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>393</v>
+        <v>24179</v>
+      </c>
+      <c r="H172" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>287</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>466</v>
+      </c>
+      <c r="E173" t="s">
+        <v>573</v>
       </c>
       <c r="F173" t="s">
         <v>24</v>
@@ -7230,131 +7197,134 @@
         <v>24153</v>
       </c>
       <c r="H173" t="s">
-        <v>453</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>260</v>
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
+        <v>391</v>
       </c>
       <c r="C174" t="s">
-        <v>261</v>
-      </c>
-      <c r="D174" t="s">
-        <v>276</v>
-      </c>
-      <c r="F174" t="s">
-        <v>25</v>
-      </c>
-      <c r="G174" s="2">
-        <v>24179</v>
-      </c>
-      <c r="H174" t="s">
-        <v>281</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174" s="5">
+        <v>24153</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>282</v>
+        <v>669</v>
       </c>
       <c r="C175" t="s">
-        <v>287</v>
+        <v>670</v>
       </c>
       <c r="D175" t="s">
-        <v>466</v>
+        <v>671</v>
       </c>
       <c r="E175" t="s">
-        <v>573</v>
+        <v>672</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G175" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H175" t="s">
-        <v>574</v>
-      </c>
-      <c r="I175" s="10"/>
+        <v>24179</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="176" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B176" t="s">
-        <v>391</v>
+        <v>226</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>767</v>
       </c>
       <c r="C176" t="s">
-        <v>392</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" s="5">
-        <v>24153</v>
+        <v>215</v>
+      </c>
+      <c r="D176" t="s">
+        <v>768</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="2">
+        <v>24018</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="I176" s="10"/>
+        <v>769</v>
+      </c>
     </row>
     <row r="177" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>669</v>
+        <v>283</v>
       </c>
       <c r="C177" t="s">
-        <v>670</v>
+        <v>286</v>
       </c>
       <c r="D177" t="s">
-        <v>671</v>
+        <v>288</v>
       </c>
       <c r="E177" t="s">
-        <v>672</v>
+        <v>289</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G177" s="2">
-        <v>24179</v>
+        <v>24014</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>673</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>767</v>
+        <v>688</v>
       </c>
       <c r="C178" t="s">
-        <v>215</v>
+        <v>689</v>
       </c>
       <c r="D178" t="s">
-        <v>768</v>
+        <v>690</v>
+      </c>
+      <c r="E178" t="s">
+        <v>691</v>
       </c>
       <c r="F178" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G178" s="2">
-        <v>24018</v>
+        <v>24153</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>769</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7362,42 +7332,39 @@
         <v>226</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C179" t="s">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="D179" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="E179" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="F179" t="s">
         <v>9</v>
       </c>
       <c r="G179" s="2">
-        <v>24014</v>
+        <v>24012</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>688</v>
+        <v>285</v>
       </c>
       <c r="C180" t="s">
-        <v>689</v>
+        <v>192</v>
       </c>
       <c r="D180" t="s">
-        <v>690</v>
-      </c>
-      <c r="E180" t="s">
-        <v>691</v>
+        <v>290</v>
       </c>
       <c r="F180" t="s">
         <v>24</v>
@@ -7406,73 +7373,77 @@
         <v>24153</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>715</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
+      </c>
+      <c r="B181" t="s">
+        <v>297</v>
       </c>
       <c r="C181" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="D181" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="E181" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="F181" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" s="2">
+        <v>24179</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4"/>
+      <c r="B182" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="F182" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G182" s="13">
         <v>24012</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C182" t="s">
-        <v>192</v>
-      </c>
-      <c r="D182" t="s">
-        <v>290</v>
-      </c>
-      <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>294</v>
+      <c r="H182" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B183" t="s">
-        <v>297</v>
+        <v>226</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="C183" t="s">
-        <v>305</v>
+        <v>611</v>
       </c>
       <c r="D183" t="s">
-        <v>310</v>
+        <v>612</v>
       </c>
       <c r="E183" t="s">
-        <v>311</v>
+        <v>613</v>
       </c>
       <c r="F183" t="s">
         <v>25</v>
@@ -7481,152 +7452,148 @@
         <v>24179</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>318</v>
+        <v>614</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-      <c r="B184" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="F184" s="12" t="s">
+      <c r="A184" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184" t="s">
+        <v>306</v>
+      </c>
+      <c r="D184" t="s">
+        <v>312</v>
+      </c>
+      <c r="F184" t="s">
         <v>9</v>
       </c>
-      <c r="G184" s="13">
-        <v>24012</v>
-      </c>
-      <c r="H184" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I184" s="4" t="s">
-        <v>817</v>
-      </c>
+      <c r="G184" s="2">
+        <v>24019</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I184" s="11"/>
     </row>
     <row r="185" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="C185" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="D185" t="s">
-        <v>612</v>
-      </c>
-      <c r="E185" t="s">
-        <v>613</v>
+        <v>718</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G185" s="2">
-        <v>24179</v>
+        <v>24018</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>614</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="I185" s="11"/>
     </row>
     <row r="186" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C186" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D186" t="s">
-        <v>312</v>
+        <v>40</v>
+      </c>
+      <c r="E186" t="s">
+        <v>313</v>
       </c>
       <c r="F186" t="s">
         <v>9</v>
       </c>
       <c r="G186" s="2">
-        <v>24019</v>
+        <v>24012</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>716</v>
+        <v>300</v>
       </c>
       <c r="C187" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="D187" t="s">
-        <v>718</v>
+        <v>729</v>
+      </c>
+      <c r="E187" t="s">
+        <v>57</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G187" s="2">
-        <v>24018</v>
+        <v>24179</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="I187" s="11"/>
+        <v>730</v>
+      </c>
     </row>
     <row r="188" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
-      </c>
-      <c r="E188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G188" s="2">
-        <v>24012</v>
+        <v>24059</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I188" s="11"/>
+        <v>321</v>
+      </c>
     </row>
     <row r="189" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>300</v>
+        <v>489</v>
       </c>
       <c r="C189" t="s">
-        <v>675</v>
+        <v>490</v>
       </c>
       <c r="D189" t="s">
-        <v>729</v>
+        <v>491</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>492</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -7635,153 +7602,151 @@
         <v>24179</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>730</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
+      </c>
+      <c r="B190" t="s">
+        <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="D190" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="E190" t="s">
+        <v>142</v>
       </c>
       <c r="F190" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G190" s="2">
-        <v>24059</v>
+        <v>24153</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>489</v>
+        <v>302</v>
       </c>
       <c r="C191" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="D191" t="s">
-        <v>491</v>
-      </c>
-      <c r="E191" t="s">
-        <v>492</v>
+        <v>317</v>
       </c>
       <c r="F191" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G191" s="2">
-        <v>24179</v>
+        <v>24018</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="I191" s="11"/>
+        <v>323</v>
+      </c>
     </row>
     <row r="192" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C192" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="D192" t="s">
-        <v>315</v>
-      </c>
-      <c r="E192" t="s">
-        <v>142</v>
+        <v>660</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G192" s="2">
-        <v>24153</v>
+        <v>24019</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>322</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="I192" s="10"/>
     </row>
     <row r="193" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>302</v>
+        <v>594</v>
       </c>
       <c r="C193" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="D193" t="s">
-        <v>317</v>
+        <v>596</v>
       </c>
       <c r="F193" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="G193" s="2">
-        <v>24018</v>
+        <v>24065</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>323</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B194" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>620</v>
       </c>
       <c r="C194" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="D194" t="s">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="F194" t="s">
         <v>9</v>
       </c>
       <c r="G194" s="2">
-        <v>24019</v>
+        <v>24018</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="I194" s="10"/>
+        <v>622</v>
+      </c>
+      <c r="I194" s="8"/>
     </row>
     <row r="195" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>594</v>
+        <v>304</v>
       </c>
       <c r="C195" t="s">
-        <v>595</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
-        <v>596</v>
+        <v>329</v>
       </c>
       <c r="F195" t="s">
-        <v>597</v>
+        <v>24</v>
       </c>
       <c r="G195" s="2">
-        <v>24065</v>
+        <v>24153</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>598</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7789,37 +7754,40 @@
         <v>296</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>620</v>
+        <v>324</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="D196" t="s">
-        <v>621</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G196" s="2">
-        <v>24018</v>
+        <v>24153</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="I196" s="8"/>
+        <v>615</v>
+      </c>
+      <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="D197" t="s">
-        <v>329</v>
+        <v>81</v>
+      </c>
+      <c r="E197" t="s">
+        <v>330</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
@@ -7828,21 +7796,21 @@
         <v>24153</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>296</v>
+        <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="F198" t="s">
         <v>24</v>
@@ -7851,102 +7819,52 @@
         <v>24153</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="I198" s="11"/>
+        <v>333</v>
+      </c>
     </row>
     <row r="199" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C199" t="s">
-        <v>327</v>
-      </c>
-      <c r="D199" t="s">
-        <v>81</v>
-      </c>
-      <c r="E199" t="s">
-        <v>330</v>
-      </c>
-      <c r="F199" t="s">
-        <v>24</v>
-      </c>
-      <c r="G199" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H199" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C200" t="s">
-        <v>328</v>
-      </c>
-      <c r="D200" t="s">
-        <v>331</v>
-      </c>
-      <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" s="2">
-        <v>24153</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="6"/>
-    </row>
-    <row r="206" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="4"/>
-    </row>
-    <row r="207" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="4"/>
+      <c r="A199" s="6"/>
+    </row>
+    <row r="204" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="213" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="215" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="H215" s="4"/>
     </row>
+    <row r="216" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4"/>
+      <c r="H216" s="4"/>
+    </row>
     <row r="217" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
-      <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="G218" s="5"/>
       <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:I177">
